--- a/excel/shops.xlsx
+++ b/excel/shops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KIMPOFD9\Documents\GitHub\fms-auto\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D69F76-F191-42C2-9BFC-7DE67C94E35F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3168B238-87A4-461E-B4A5-696DEE4C5B95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17220" yWindow="5865" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="3735" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -306,6 +306,10 @@
   </si>
   <si>
     <t>커피101스트릿 풍무점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페라이커</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -637,7 +641,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -917,6 +921,9 @@
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C30" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel/shops.xlsx
+++ b/excel/shops.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KIMPOFD9\Documents\GitHub\fms-auto\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52812237-1CE3-4177-BA7E-D61C85DD6D3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89521EE-CBEF-4BA1-A35F-1017CBE48C7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2940" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="3570" windowWidth="7005" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -173,9 +173,6 @@
     <t>브레드홀릭</t>
   </si>
   <si>
-    <t>홍종흔베이커리(김포점)</t>
-  </si>
-  <si>
     <t>맘마멤버스</t>
   </si>
   <si>
@@ -251,6 +248,10 @@
   </si>
   <si>
     <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍종흔베이커리(김포</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,7 +630,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -662,13 +663,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -914,10 +915,10 @@
         <v>45</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -926,13 +927,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -941,11 +942,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -954,11 +954,11 @@
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -967,11 +967,11 @@
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -980,7 +980,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -991,7 +991,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -1002,7 +1002,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -1013,7 +1013,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1024,11 +1024,11 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1037,11 +1037,11 @@
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1050,11 +1050,11 @@
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1063,11 +1063,11 @@
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">

--- a/excel/shops.xlsx
+++ b/excel/shops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KIMPOFD9\Documents\GitHub\fms-auto\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89521EE-CBEF-4BA1-A35F-1017CBE48C7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAA4F88-F6CD-4CD3-BFFF-D6B008E59F95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="3570" windowWidth="7005" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>파리바게트(김포시청</t>
   </si>
@@ -252,6 +252,14 @@
   </si>
   <si>
     <t>홍종흔베이커리(김포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚜레쥬르 김포향산점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>떡마실</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,13 +632,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XEH32"/>
+  <dimension ref="A1:XEH33"/>
   <sheetViews>
     <sheetView showRowColHeaders="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1077,7 +1085,18 @@
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
+      <c r="D32" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <f>ROW()-2</f>
+        <v>31</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel/shops.xlsx
+++ b/excel/shops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KIMPOFD9\Documents\GitHub\fms-auto\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAA4F88-F6CD-4CD3-BFFF-D6B008E59F95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA4BAEE-B6B1-4090-9F83-EB2447A26078}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="7005" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>파리바게트(김포시청</t>
   </si>
@@ -260,6 +260,10 @@
   </si>
   <si>
     <t>떡마실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈까스회관_구래점</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -638,7 +642,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1094,6 +1098,9 @@
         <f>ROW()-2</f>
         <v>31</v>
       </c>
+      <c r="C33" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="D33" s="5" t="s">
         <v>73</v>
       </c>

--- a/excel/shops.xlsx
+++ b/excel/shops.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KIMPOFD9\Documents\GitHub\fms-auto\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA4BAEE-B6B1-4090-9F83-EB2447A26078}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521027AE-AB73-4B37-B2FC-FE66717A6F1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2685" yWindow="2685" windowWidth="7005" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -263,7 +263,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>돈까스회관_구래점</t>
+    <t>폴콘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,13 +636,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XEH33"/>
+  <dimension ref="A1:XEH34"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1098,11 +1098,16 @@
         <f>ROW()-2</f>
         <v>31</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="D33" s="5" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/excel/shops.xlsx
+++ b/excel/shops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KIMPOFD9\Documents\GitHub\fms-auto\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521027AE-AB73-4B37-B2FC-FE66717A6F1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B3D1A1-9EAF-4BE9-8023-A042BA6D570D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="7005" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="7500" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>파리바게트(김포시청</t>
   </si>
@@ -167,22 +167,13 @@
     <t>백오기정</t>
   </si>
   <si>
-    <t>당신을위한베이커리</t>
-  </si>
-  <si>
     <t>브레드홀릭</t>
   </si>
   <si>
-    <t>맘마멤버스</t>
-  </si>
-  <si>
     <t>팬트리96도씨</t>
   </si>
   <si>
     <t>모담떡집</t>
-  </si>
-  <si>
-    <t>파리바게트(북변)</t>
   </si>
   <si>
     <t>파리바게뜨 김포청송마을</t>
@@ -264,6 +255,26 @@
   </si>
   <si>
     <t>폴콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크라상점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가윤제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚜레쥬르고촌캐슬파밀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>촘초밀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우고베이커</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,16 +647,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XEH34"/>
+  <dimension ref="A1:XEH38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="3" width="30.625" style="1" customWidth="1"/>
@@ -675,18 +686,18 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <f t="shared" ref="A3:A31" si="1">ROW()-2</f>
+        <f t="shared" ref="A3:A38" si="1">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -914,9 +925,7 @@
       <c r="C18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
@@ -924,14 +933,12 @@
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>46</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
@@ -939,14 +946,12 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>49</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
@@ -954,10 +959,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -966,11 +974,11 @@
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -979,11 +987,11 @@
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -992,7 +1000,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1003,7 +1011,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -1014,7 +1022,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -1025,7 +1033,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1036,11 +1044,11 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1049,11 +1057,11 @@
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1062,11 +1070,11 @@
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1075,11 +1083,11 @@
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1090,24 +1098,61 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="D34" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/excel/shops.xlsx
+++ b/excel/shops.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KIMPOFD9\Documents\GitHub\fms-auto\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimpofd-2\Documents\GitHub\fms-auto\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B3D1A1-9EAF-4BE9-8023-A042BA6D570D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8977DA-64DD-4379-BE10-D6FA9FDD69BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="7500" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33210" yWindow="4920" windowWidth="28785" windowHeight="18945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -56,9 +54,6 @@
     <t>빵곳간</t>
   </si>
   <si>
-    <t>베이커리홍셰프</t>
-  </si>
-  <si>
     <t>604avenue</t>
   </si>
   <si>
@@ -275,6 +270,10 @@
   </si>
   <si>
     <t>우고베이커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베이커리 홍쉐프(신)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -650,10 +649,10 @@
   <dimension ref="A1:XEH38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -686,13 +685,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -729,10 +728,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>0</v>
@@ -744,13 +743,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -759,13 +758,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -774,10 +773,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="D8" s="5"/>
     </row>
@@ -787,13 +786,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -802,10 +801,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="D10" s="5"/>
     </row>
@@ -815,13 +814,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -830,13 +829,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -845,13 +844,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -860,10 +859,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>1</v>
@@ -875,13 +874,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -890,13 +889,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -905,13 +904,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -920,10 +919,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="D18" s="5"/>
     </row>
@@ -933,10 +932,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" s="5"/>
     </row>
@@ -946,10 +945,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="D20" s="5"/>
     </row>
@@ -959,13 +958,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -974,11 +973,11 @@
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -987,11 +986,11 @@
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1000,7 +999,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1011,7 +1010,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -1022,7 +1021,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -1033,7 +1032,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1044,11 +1043,11 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1057,11 +1056,11 @@
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1070,11 +1069,11 @@
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1083,11 +1082,11 @@
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1098,7 +1097,7 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1107,7 +1106,7 @@
         <v>31</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1116,7 +1115,7 @@
         <v>32</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1125,7 +1124,7 @@
         <v>33</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1134,7 +1133,7 @@
         <v>34</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1143,7 +1142,7 @@
         <v>35</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1152,7 +1151,7 @@
         <v>36</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/excel/shops.xlsx
+++ b/excel/shops.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimpofd-2\Documents\GitHub\fms-auto\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KIMPOFD9\Documents\GitHub\fms-auto\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8977DA-64DD-4379-BE10-D6FA9FDD69BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AD7587-4646-461C-8698-39162A8B6374}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33210" yWindow="4920" windowWidth="28785" windowHeight="18945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2505" yWindow="2505" windowWidth="7500" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>파리바게트(김포시청</t>
   </si>
@@ -274,6 +277,10 @@
   </si>
   <si>
     <t>베이커리 홍쉐프(신)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베이커리홍셰프</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -652,7 +659,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -728,7 +735,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>7</v>
@@ -1094,7 +1101,9 @@
         <f>ROW()-2</f>
         <v>30</v>
       </c>
-      <c r="B32" s="5"/>
+      <c r="B32" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5" t="s">
         <v>68</v>
